--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\bkp-usuarios\nilson\Desktop\Capgemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\bkp-usuarios\nilson\Desktop\teste-tecnico-capgemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6BBFA3-DE83-4A74-9334-58BF11AB5BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C48B23-903A-4A81-B8B4-3A769BA9862B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D9C88F38-B4E9-4F33-8DA4-F4AC2F42F675}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD112442-60D1-4A49-872B-B8536D7167CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,31 +27,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>Descrição 1</t>
+  </si>
+  <si>
+    <t>Descrição 2</t>
+  </si>
+  <si>
+    <t>Descrição 3</t>
+  </si>
+  <si>
+    <t>Descrição 4</t>
+  </si>
+  <si>
+    <t>Descrição 5</t>
+  </si>
+  <si>
+    <t>Descrição 6</t>
+  </si>
+  <si>
+    <t>Descrição 7</t>
+  </si>
+  <si>
+    <t>Descrição 8</t>
+  </si>
+  <si>
     <t>Descrição 9</t>
-  </si>
-  <si>
-    <t>Descrição 1</t>
-  </si>
-  <si>
-    <t>Descrição 2</t>
-  </si>
-  <si>
-    <t>Descrição 3</t>
-  </si>
-  <si>
-    <t>Descrição 4</t>
-  </si>
-  <si>
-    <t>Descrição 5</t>
-  </si>
-  <si>
-    <t>Descrição 6</t>
-  </si>
-  <si>
-    <t>Descrição 7</t>
-  </si>
-  <si>
-    <t>Descrição 8</t>
   </si>
 </sst>
 </file>
@@ -93,8 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -410,158 +409,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78C68A7-4FA0-4E17-A95D-69FFA790900A}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A99EA-D26E-4BEB-9945-F687B0D0B679}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D1" sqref="D1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>44131</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44195</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44259</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44291</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44323</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>44355</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>44387</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\bkp-usuarios\nilson\Desktop\teste-tecnico-capgemini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/eric_pacheco_capgemini_com/Documents/Desktop/Schneider/SITS/MyOrca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C48B23-903A-4A81-B8B4-3A769BA9862B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B499F1EA-FC6D-4C44-807B-62B1AF509F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AD112442-60D1-4A49-872B-B8536D7167CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E133997F-A63E-4149-AA56-C62793E31A2C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -58,16 +67,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -81,12 +84,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -95,7 +111,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,7 +130,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -409,22 +425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964A99EA-D26E-4BEB-9945-F687B0D0B679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80E6C8A-917A-4E64-8193-72965EE0CBA2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D9"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
-        <v>44131</v>
+        <v>44142</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -436,9 +452,9 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>44163</v>
+        <v>44172</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -447,12 +463,12 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>44195</v>
+        <v>44203</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -461,12 +477,12 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>44227</v>
+        <v>44234</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -475,12 +491,12 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>44259</v>
+        <v>44262</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -489,12 +505,12 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>44291</v>
+        <v>44293</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -503,10 +519,10 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>44323</v>
       </c>
@@ -517,12 +533,12 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>16.7</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>44355</v>
+        <v>44354</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -531,12 +547,12 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>17.8</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
-        <v>44387</v>
+        <v>44384</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -545,11 +561,260 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>18.899999999999999</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E5CA0669F0B19A4C97051E69122EADC1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd365c4996e6dffd6ef2f6d3c463c1fc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a42bd279-a8da-4671-9755-026c37bf28de" xmlns:ns4="a1dd4b54-d447-4676-85ec-4540d2ef041e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ca27c8f5012bce7bb293e4a9942d2e" ns3:_="" ns4:_="">
+    <xsd:import namespace="a42bd279-a8da-4671-9755-026c37bf28de"/>
+    <xsd:import namespace="a1dd4b54-d447-4676-85ec-4540d2ef041e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a42bd279-a8da-4671-9755-026c37bf28de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a1dd4b54-d447-4676-85ec-4540d2ef041e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AFCA3A3-BEF3-4051-AABA-F4D789295DF5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABA7A362-D440-48BF-9F88-999E2A3BA1B0}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DCE3480-CA1C-4DE0-BECB-9FFCA09FCD0B}"/>
 </file>